--- a/data/trans_camb/P2B_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P2B_R-Habitat-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>26.57205111440287</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1.75060755069866</v>
+        <v>1.750607550698666</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>29.41440604380337</v>
@@ -655,7 +655,7 @@
         <v>22.76050500854875</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.1506232088552939</v>
+        <v>0.1506232088552995</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>30.04081400096935</v>
@@ -664,7 +664,7 @@
         <v>24.56880342093696</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.9710458653528514</v>
+        <v>0.971045865352857</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>25.1056602498302</v>
+        <v>25.292567036623</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>20.38047051864122</v>
+        <v>21.03132669773172</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.17911384050915</v>
+        <v>-3.469490231553414</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>23.91390022887153</v>
+        <v>23.89854970722718</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>16.3611300008551</v>
+        <v>17.01155981248219</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-4.305143833313272</v>
+        <v>-4.517523547740547</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>26.11408171363425</v>
+        <v>26.16213955659916</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>20.67273669563919</v>
+        <v>20.4063089636539</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-2.592422851410248</v>
+        <v>-2.700600533065871</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>36.66914720281729</v>
+        <v>36.39490932457724</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>32.13480343422225</v>
+        <v>31.97829019034386</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.934265869223625</v>
+        <v>7.013694350909258</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>35.08547635636596</v>
+        <v>34.71590053094808</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>27.89894151508528</v>
+        <v>28.3505004597541</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>4.837408137186137</v>
+        <v>4.760617216283586</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>33.92074569214974</v>
+        <v>34.07279021343953</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>28.59751767043193</v>
+        <v>28.28829255985675</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>4.820528888937544</v>
+        <v>4.01593215670941</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>1.202252672732885</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.07920625312936555</v>
+        <v>0.07920625312936581</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>1.137871974072951</v>
@@ -760,7 +760,7 @@
         <v>0.8804713148518802</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.00582673427932371</v>
+        <v>0.005826734279323925</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>1.247954478838125</v>
@@ -769,7 +769,7 @@
         <v>1.020636400460466</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.04033915448447005</v>
+        <v>0.04033915448447029</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>1.014354787606253</v>
+        <v>1.014003204898716</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.829338086189874</v>
+        <v>0.8332909676942002</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1677017707008906</v>
+        <v>-0.1463827695117537</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.8354928876952433</v>
+        <v>0.8419748021289611</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.5674621247838313</v>
+        <v>0.5843079240824757</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1543689905955</v>
+        <v>-0.1587943100437485</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9910840251702375</v>
+        <v>1.000653690847716</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.7902367764440413</v>
+        <v>0.7713221668798126</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.09911878788380964</v>
+        <v>-0.1034682782122752</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.912638957531539</v>
+        <v>1.86202090998164</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.630528523195879</v>
+        <v>1.619628371670677</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.34712957890963</v>
+        <v>0.3479224552962382</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.53021863798977</v>
+        <v>1.486028372354288</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.213493630751139</v>
+        <v>1.206902125289971</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2145027637053587</v>
+        <v>0.2047869198972698</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.525843456818964</v>
+        <v>1.522278307075657</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.296107880766996</v>
+        <v>1.26516380350525</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.2216923692309428</v>
+        <v>0.1791050307036827</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>27.46008719007284</v>
+        <v>27.56607743582304</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>15.72924171223845</v>
+        <v>16.38718424329556</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4275902789201367</v>
+        <v>0.5104145077025127</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>26.2769812110792</v>
+        <v>25.99789109084281</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>19.16460078666402</v>
+        <v>19.03719219048114</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>3.084089932263349</v>
+        <v>3.486850912827222</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>28.02219381894208</v>
+        <v>28.19144686123505</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>19.12786137364208</v>
+        <v>18.78836911044169</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>3.060007649308775</v>
+        <v>3.485726085716081</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>36.74319398963535</v>
+        <v>36.95414319719612</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>25.991123262489</v>
+        <v>25.61176564222452</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>10.10919198552282</v>
+        <v>10.54450530715913</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>35.34997315356393</v>
+        <v>35.23259165807832</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>28.69971726664739</v>
+        <v>28.36193363466031</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>11.62410836469868</v>
+        <v>11.76256872890404</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>34.92513267435525</v>
+        <v>34.76952230710015</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>25.93411627791059</v>
+        <v>25.56836584633907</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>9.719539987257217</v>
+        <v>10.08650178642939</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1.074377656693085</v>
+        <v>1.08819839979249</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.6310734672489656</v>
+        <v>0.6446501432340255</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.01863255508686358</v>
+        <v>0.02146738802221548</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.9283356450306205</v>
+        <v>0.9063343942183125</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.688751070275983</v>
+        <v>0.6686432157335873</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1085392471495043</v>
+        <v>0.1218429209168146</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1.075427749916117</v>
+        <v>1.087923448498632</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.7390374038008135</v>
+        <v>0.7290045236122444</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.1198488508785391</v>
+        <v>0.1321436857622253</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.834405081924221</v>
+        <v>1.839483475555709</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.268484226658838</v>
+        <v>1.302768354537797</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.4961002691530292</v>
+        <v>0.5123567119193182</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.530120116986006</v>
+        <v>1.523144836372103</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.213614597868041</v>
+        <v>1.208256953491209</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4951694422646787</v>
+        <v>0.5151869906200777</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.543236477262776</v>
+        <v>1.541148983928086</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.146928730284114</v>
+        <v>1.142008608180148</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.4323016084745246</v>
+        <v>0.44217242348918</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>15.45938942780681</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-1.306076346581353</v>
+        <v>-1.306076346581347</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>33.19194034970395</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>28.60506241357565</v>
+        <v>29.02786203049164</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>7.428245189360356</v>
+        <v>7.0269278765191</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-3.848697599143333</v>
+        <v>-4.494795961231513</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>26.69438610053752</v>
+        <v>26.80292530409079</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>9.696821714826402</v>
+        <v>10.27847819458877</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-6.421853324104029</v>
+        <v>-5.901044007489617</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>29.3743033032875</v>
+        <v>29.30584710947334</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>10.22946802172474</v>
+        <v>10.46333646118216</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-3.730297582963132</v>
+        <v>-3.864338199596462</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>39.57430315468657</v>
+        <v>40.3951848885843</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>18.65245107439276</v>
+        <v>18.07081254213815</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.935754177427224</v>
+        <v>6.530953966510452</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>37.5114917708504</v>
+        <v>37.52055223360821</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>21.04166518687508</v>
+        <v>20.83479135039221</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.193970296374624</v>
+        <v>3.66791490732637</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>37.19066517992923</v>
+        <v>37.42100160623209</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>18.40533474592561</v>
+        <v>18.2962350103506</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>3.450625808506267</v>
+        <v>3.626522909714726</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>0.6062130117217379</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.05121550752680222</v>
+        <v>-0.05121550752680201</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>1.416770343268339</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>1.192400868960296</v>
+        <v>1.219456186165089</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.3116882807296595</v>
+        <v>0.2901342548122827</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1690725916072498</v>
+        <v>-0.1900838299929765</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.9422347279201192</v>
+        <v>0.9527545071777214</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.3457172778727231</v>
+        <v>0.3646712860235889</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2263663318767539</v>
+        <v>-0.2113467418980629</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>1.14794333966938</v>
+        <v>1.141799681717921</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.4094809744857652</v>
+        <v>0.4176698789699855</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.1451486201232616</v>
+        <v>-0.1512198555987019</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>2.164096657014383</v>
+        <v>2.237114143690278</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.015568164908479</v>
+        <v>0.9866206631038227</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.3931824748435873</v>
+        <v>0.3526475267293749</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.664672310372053</v>
+        <v>1.676953966350617</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.9206961485319691</v>
+        <v>0.8908189603209349</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1418794399360578</v>
+        <v>0.1588912604483372</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.736727000536842</v>
+        <v>1.751649433510353</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.8463061823096607</v>
+        <v>0.858864349785129</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.158629000259024</v>
+        <v>0.1692739758719774</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>19.75051099994177</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-0.6490902936202553</v>
+        <v>-0.6490902936202497</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>19.21855791999014</v>
+        <v>18.68205628681615</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>14.47505651263936</v>
+        <v>14.00685706004595</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-4.207809750292395</v>
+        <v>-4.162370142299922</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>16.31043414858662</v>
+        <v>16.30860870142483</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>15.41883401498816</v>
+        <v>16.08551215377867</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-5.315442260960167</v>
+        <v>-5.293823229686764</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>18.64295361747645</v>
+        <v>18.94284932062148</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>16.44663125228048</v>
+        <v>16.35115075155582</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-3.517194859826763</v>
+        <v>-3.444614030339071</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>28.41065936859131</v>
+        <v>28.67842319894951</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>24.08741701779147</v>
+        <v>23.75561995668813</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.5881175233264</v>
+        <v>4.648807318303202</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>25.64317278531744</v>
+        <v>25.187967738849</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>24.97389399200364</v>
+        <v>25.12977309320466</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.035483404513775</v>
+        <v>2.832411684396549</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>25.8485529975884</v>
+        <v>25.54483956066647</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>23.33654620690628</v>
+        <v>22.96942616504492</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.430468381648705</v>
+        <v>2.218261455236668</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>0.801584349440569</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.02634365362705371</v>
+        <v>-0.02634365362705349</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.8176559747094764</v>
+        <v>0.775655318304395</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.606157264589502</v>
+        <v>0.5850659275014605</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1814197014960254</v>
+        <v>-0.182816799701473</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.5422254272219608</v>
+        <v>0.5470611131285738</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.5055236598363</v>
+        <v>0.5454563411607324</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1771800487630396</v>
+        <v>-0.1827670235290893</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.713249409189268</v>
+        <v>0.7117551558973673</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.6151473803963889</v>
+        <v>0.6185403376380708</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.1352954631438496</v>
+        <v>-0.1329220819705478</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.496498064891934</v>
+        <v>1.490096579062173</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.248042640699758</v>
+        <v>1.246261487382699</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.2386712972314285</v>
+        <v>0.2479829914076573</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.029069514644769</v>
+        <v>1.008296426415682</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.9793766702714357</v>
+        <v>1.000575174007616</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1229453406321184</v>
+        <v>0.1094621147416518</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.151105753303955</v>
+        <v>1.111144589151031</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.010773617236803</v>
+        <v>0.993351472766318</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.1051523962751253</v>
+        <v>0.09597699710409763</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>20.77234413794626</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>1.525037294928255</v>
+        <v>1.525037294928261</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>28.88033341328739</v>
@@ -1520,7 +1520,7 @@
         <v>20.33558919000323</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>1.879274276697063</v>
+        <v>1.879274276697068</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>27.39564585874236</v>
+        <v>27.09698777705167</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>16.97661839781503</v>
+        <v>17.22756004931487</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.1459822610922535</v>
+        <v>-0.330592096868233</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>25.46123765387043</v>
+        <v>25.58884936497171</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>18.25489800239256</v>
+        <v>18.10772514778451</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-0.7865994471940335</v>
+        <v>-0.6700984773325287</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>27.29884999552814</v>
+        <v>26.9565756137362</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>18.58913261802801</v>
+        <v>18.64604970738736</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.3101371603903813</v>
+        <v>0.2657151657754463</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>32.56768461913658</v>
+        <v>32.40710098347425</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>22.32528972765675</v>
+        <v>22.38146090136292</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4.618646111626736</v>
+        <v>4.657883942591935</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>30.40869775769913</v>
+        <v>30.45253854830802</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>23.27471622458442</v>
+        <v>23.196727754402</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>3.748719808704355</v>
+        <v>3.649472846303818</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>30.71697151509132</v>
+        <v>30.53801500122588</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>22.31812855262064</v>
+        <v>22.28606553476792</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>3.386830930717118</v>
+        <v>3.644872731454568</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.7931790872767751</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.05823260396714331</v>
+        <v>0.05823260396714353</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>1.19448430012247</v>
@@ -1625,7 +1625,7 @@
         <v>0.8410755400082529</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.07772637479683221</v>
+        <v>0.07772637479683245</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>1.1766529423201</v>
+        <v>1.158851067405297</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.7370375426620394</v>
+        <v>0.7401413129180001</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.002979725853719657</v>
+        <v>-0.01477088006911936</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.9211681724666193</v>
+        <v>0.9268531672738001</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.6683784903553397</v>
+        <v>0.6545537593775576</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.02915453034604425</v>
+        <v>-0.02451206311691318</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>1.085555744817279</v>
+        <v>1.077254809098956</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.7426026063324913</v>
+        <v>0.7442166903763928</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.01231359961607122</v>
+        <v>0.01245337202027757</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.585027516708063</v>
+        <v>1.569365357781517</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.087897827750825</v>
+        <v>1.083514556816067</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.2241215567676607</v>
+        <v>0.2261230534524713</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.216037689618571</v>
+        <v>1.208723252372273</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.9313495167056948</v>
+        <v>0.9238464385512056</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1483648979677754</v>
+        <v>0.1452272628862179</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>1.32224268963456</v>
+        <v>1.312736423605777</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.9592290908663669</v>
+        <v>0.961023071409643</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.1438803502684118</v>
+        <v>0.155956247140593</v>
       </c>
     </row>
     <row r="34">
